--- a/6Timetable/data/20210816/●TIHP予約枠0816分.xlsx
+++ b/6Timetable/data/20210816/●TIHP予約枠0816分.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="会場" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="29" uniqueCount="29">
   <si>
     <t>デフォルト終了時刻</t>
     <rPh sb="5" eb="7">
@@ -36,9 +36,6 @@
     <t>開始時</t>
   </si>
   <si>
-    <t>巽今宮病院_7/13～7/30</t>
-  </si>
-  <si>
     <t>デフォルト開始時刻</t>
     <rPh sb="5" eb="9">
       <t>カイシジコク</t>
@@ -62,20 +59,6 @@
     <t>デフォルト日付</t>
     <rPh sb="5" eb="7">
       <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>デフォルト毎時間枠の時間</t>
-  </si>
-  <si>
-    <t>昼休み終了時間
-※インポート時紐付け不要</t>
-    <rPh sb="0" eb="2">
-      <t>ヒルヤス</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -94,10 +77,24 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>昼休み終了時間
+※インポート時紐付け不要</t>
+    <rPh sb="0" eb="2">
+      <t>ヒルヤス</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デフォルト毎時間枠の時間</t>
+  </si>
+  <si>
+    <t>Webサイト</t>
+  </si>
+  <si>
     <t>昼休み開始</t>
-  </si>
-  <si>
-    <t>Webサイト</t>
   </si>
   <si>
     <t>会場: 電話</t>
@@ -115,9 +112,6 @@
       <t>ジュウショ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>病院ID</t>
   </si>
   <si>
     <t>接種日
@@ -140,6 +134,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>病院ID</t>
+  </si>
+  <si>
     <t>接種（予約）開始時間
 ※インポート時紐付け不要</t>
     <rPh sb="0" eb="2">
@@ -169,14 +166,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>有効</t>
-  </si>
-  <si>
     <t>外部ID</t>
     <rPh sb="0" eb="2">
       <t>ガイブ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有効</t>
   </si>
   <si>
     <r>
@@ -954,7 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -972,31 +969,31 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>0</v>
@@ -1004,10 +1001,10 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
@@ -1043,9 +1040,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1063,7 +1060,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="27">
       <c r="A1" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>15</v>
@@ -1072,52 +1069,52 @@
         <v>20</v>
       </c>
       <c r="D1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="P1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="22" t="s">
         <v>4</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="22" t="s">
-        <v>5</v>
       </c>
       <c r="R1" s="22" t="s">
         <v>11</v>
       </c>
       <c r="S1" s="43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1">
@@ -1125,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="23" t="b">
         <v>1</v>
@@ -1148,7 +1145,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L2" s="15">
         <v>120</v>
@@ -1185,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="23" t="b">
         <v>1</v>
@@ -1208,7 +1205,7 @@
         <v>12</v>
       </c>
       <c r="K3" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L3" s="15">
         <v>120</v>
@@ -1245,7 +1242,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="23" t="b">
         <v>1</v>
@@ -1268,7 +1265,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L4" s="15">
         <v>120</v>
@@ -1305,7 +1302,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="23" t="b">
         <v>1</v>
@@ -1328,7 +1325,7 @@
         <v>12</v>
       </c>
       <c r="K5" s="15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L5" s="15">
         <v>120</v>
@@ -1365,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="24" t="b">
         <v>1</v>
@@ -1388,7 +1385,7 @@
         <v>12</v>
       </c>
       <c r="K6" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L6" s="16">
         <v>120</v>
@@ -1425,7 +1422,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="24" t="b">
         <v>1</v>
@@ -1448,7 +1445,7 @@
         <v>12</v>
       </c>
       <c r="K7" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L7" s="16">
         <v>120</v>
@@ -1485,7 +1482,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="24" t="b">
         <v>1</v>
@@ -1508,7 +1505,7 @@
         <v>12</v>
       </c>
       <c r="K8" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L8" s="16">
         <v>120</v>
@@ -1545,7 +1542,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="25" t="b">
         <v>1</v>
@@ -1568,7 +1565,7 @@
         <v>12</v>
       </c>
       <c r="K9" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L9" s="17">
         <v>120</v>
@@ -1605,7 +1602,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="25" t="b">
         <v>1</v>
@@ -1628,7 +1625,7 @@
         <v>12</v>
       </c>
       <c r="K10" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L10" s="17">
         <v>120</v>
@@ -1665,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="25" t="b">
         <v>1</v>
@@ -1688,7 +1685,7 @@
         <v>12</v>
       </c>
       <c r="K11" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L11" s="17">
         <v>120</v>
@@ -1725,7 +1722,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="26" t="b">
         <v>1</v>
@@ -1748,7 +1745,7 @@
         <v>12</v>
       </c>
       <c r="K12" s="18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L12" s="18">
         <v>120</v>
@@ -1785,7 +1782,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="27" t="b">
         <v>1</v>
@@ -1808,16 +1805,16 @@
         <v>12</v>
       </c>
       <c r="K13" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L13" s="19">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M13" s="19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N13" s="19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O13" s="39" t="str">
         <f t="shared" si="0"/>
@@ -1845,7 +1842,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="27" t="b">
         <v>1</v>
@@ -1868,16 +1865,16 @@
         <v>12</v>
       </c>
       <c r="K14" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L14" s="19">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M14" s="19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N14" s="19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O14" s="39" t="str">
         <f t="shared" si="0"/>
@@ -1905,7 +1902,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="27" t="b">
         <v>1</v>
@@ -1928,16 +1925,16 @@
         <v>12</v>
       </c>
       <c r="K15" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L15" s="19">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M15" s="19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N15" s="19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O15" s="39" t="str">
         <f t="shared" si="0"/>
@@ -1965,7 +1962,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="27" t="b">
         <v>1</v>
@@ -1988,16 +1985,16 @@
         <v>12</v>
       </c>
       <c r="K16" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L16" s="19">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M16" s="19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N16" s="19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O16" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2025,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="28" t="b">
         <v>1</v>
@@ -2048,16 +2045,16 @@
         <v>12</v>
       </c>
       <c r="K17" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L17" s="20">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M17" s="20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N17" s="20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O17" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2085,7 +2082,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="28" t="b">
         <v>1</v>
@@ -2108,16 +2105,16 @@
         <v>12</v>
       </c>
       <c r="K18" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L18" s="20">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M18" s="20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N18" s="20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O18" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2145,7 +2142,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="28" t="b">
         <v>1</v>
@@ -2168,16 +2165,16 @@
         <v>12</v>
       </c>
       <c r="K19" s="20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L19" s="20">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M19" s="20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N19" s="20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O19" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2205,7 +2202,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="29" t="b">
         <v>1</v>
@@ -2228,16 +2225,16 @@
         <v>12</v>
       </c>
       <c r="K20" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L20" s="21">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M20" s="21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N20" s="21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O20" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2265,7 +2262,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="29" t="b">
         <v>1</v>
@@ -2288,16 +2285,16 @@
         <v>12</v>
       </c>
       <c r="K21" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L21" s="21">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M21" s="21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N21" s="21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O21" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2325,7 +2322,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="29" t="b">
         <v>1</v>
@@ -2348,16 +2345,16 @@
         <v>12</v>
       </c>
       <c r="K22" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L22" s="21">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M22" s="21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N22" s="21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O22" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2385,7 +2382,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="29" t="b">
         <v>1</v>
@@ -2408,16 +2405,16 @@
         <v>12</v>
       </c>
       <c r="K23" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L23" s="21">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M23" s="21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N23" s="21">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O23" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2449,10 +2446,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D16:D17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2470,7 +2467,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="27">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>15</v>
@@ -2479,66 +2476,66 @@
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="P1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="R1" s="7" t="s">
         <v>11</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="6">
-        <v>44334</v>
+        <v>44426</v>
       </c>
       <c r="E2" s="8">
         <v>0.58333333333333337</v>
@@ -2571,472 +2568,24 @@
         <v>8</v>
       </c>
       <c r="O2" s="46" t="str">
-        <f t="shared" ref="O2:O9" si="0">B2&amp;"/"&amp;TEXT(D2,"yyyy-mm-dd")</f>
-        <v>巽今宮病院_7/13～7/30/2021-05-18</v>
+        <f>B2&amp;"/"&amp;TEXT(D2,"yyyy-mm-dd")</f>
+        <v>巽今宮病院_8/24～9/10/2021-08-18</v>
       </c>
       <c r="P2" s="9" t="str">
-        <f t="shared" ref="P2:P9" si="1">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(E2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-05-18T14:00:00.000+9</v>
+        <f>TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(E2,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-08-18T14:00:00.000+9</v>
       </c>
       <c r="Q2" s="9" t="str">
-        <f t="shared" ref="Q2:Q9" si="2">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-05-18T14:30:00.000+9</v>
+        <f>TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(F2,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-08-18T14:30:00.000+9</v>
       </c>
       <c r="R2" s="9" t="str">
-        <f t="shared" ref="R2:R9" si="3">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-05-18T14:00:00.000+9</v>
+        <f>TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(G2,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-08-18T14:00:00.000+9</v>
       </c>
       <c r="S2" s="9" t="str">
-        <f t="shared" ref="S2:S9" si="4">TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
-        <v>2021-05-18T14:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1">
-      <c r="A3" s="1">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>44341</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.60416666666666652</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0.60416666666666652</v>
-      </c>
-      <c r="I3" s="3">
-        <v>30</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>120</v>
-      </c>
-      <c r="M3" s="3">
-        <v>8</v>
-      </c>
-      <c r="N3" s="3">
-        <v>8</v>
-      </c>
-      <c r="O3" s="46" t="str">
-        <f t="shared" si="0"/>
-        <v>巽今宮病院_7/13～7/30/2021-05-25</v>
-      </c>
-      <c r="P3" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-05-25T14:00:00.000+9</v>
-      </c>
-      <c r="Q3" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-05-25T14:30:00.000+9</v>
-      </c>
-      <c r="R3" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-05-25T14:00:00.000+9</v>
-      </c>
-      <c r="S3" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-05-25T14:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1">
-      <c r="A4" s="1">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>44348</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.60416666666666652</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0.60416666666666652</v>
-      </c>
-      <c r="I4" s="3">
-        <v>30</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>120</v>
-      </c>
-      <c r="M4" s="3">
-        <v>8</v>
-      </c>
-      <c r="N4" s="3">
-        <v>8</v>
-      </c>
-      <c r="O4" s="46" t="str">
-        <f t="shared" si="0"/>
-        <v>巽今宮病院_7/13～7/30/2021-06-01</v>
-      </c>
-      <c r="P4" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-06-01T14:00:00.000+9</v>
-      </c>
-      <c r="Q4" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-06-01T14:30:00.000+9</v>
-      </c>
-      <c r="R4" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-06-01T14:00:00.000+9</v>
-      </c>
-      <c r="S4" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-06-01T14:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="1" customFormat="1">
-      <c r="A5" s="1">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>44355</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.60416666666666652</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0.60416666666666652</v>
-      </c>
-      <c r="I5" s="3">
-        <v>30</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>120</v>
-      </c>
-      <c r="M5" s="3">
-        <v>8</v>
-      </c>
-      <c r="N5" s="3">
-        <v>8</v>
-      </c>
-      <c r="O5" s="46" t="str">
-        <f t="shared" si="0"/>
-        <v>巽今宮病院_7/13～7/30/2021-06-08</v>
-      </c>
-      <c r="P5" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-06-08T14:00:00.000+9</v>
-      </c>
-      <c r="Q5" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-06-08T14:30:00.000+9</v>
-      </c>
-      <c r="R5" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-06-08T14:00:00.000+9</v>
-      </c>
-      <c r="S5" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-06-08T14:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="1" customFormat="1">
-      <c r="A6" s="1">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>44362</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.60416666666666652</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0.60416666666666652</v>
-      </c>
-      <c r="I6" s="3">
-        <v>30</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>120</v>
-      </c>
-      <c r="M6" s="3">
-        <v>8</v>
-      </c>
-      <c r="N6" s="3">
-        <v>8</v>
-      </c>
-      <c r="O6" s="46" t="str">
-        <f t="shared" si="0"/>
-        <v>巽今宮病院_7/13～7/30/2021-06-15</v>
-      </c>
-      <c r="P6" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-06-15T14:00:00.000+9</v>
-      </c>
-      <c r="Q6" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-06-15T14:30:00.000+9</v>
-      </c>
-      <c r="R6" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-06-15T14:00:00.000+9</v>
-      </c>
-      <c r="S6" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-06-15T14:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="1" customFormat="1">
-      <c r="A7" s="1">
-        <v>10</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>44369</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0.60416666666666652</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0.60416666666666652</v>
-      </c>
-      <c r="I7" s="3">
-        <v>30</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>120</v>
-      </c>
-      <c r="M7" s="3">
-        <v>8</v>
-      </c>
-      <c r="N7" s="3">
-        <v>8</v>
-      </c>
-      <c r="O7" s="46" t="str">
-        <f t="shared" si="0"/>
-        <v>巽今宮病院_7/13～7/30/2021-06-22</v>
-      </c>
-      <c r="P7" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-06-22T14:00:00.000+9</v>
-      </c>
-      <c r="Q7" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-06-22T14:30:00.000+9</v>
-      </c>
-      <c r="R7" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-06-22T14:00:00.000+9</v>
-      </c>
-      <c r="S7" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-06-22T14:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="1" customFormat="1">
-      <c r="A8" s="1">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>44376</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0.60416666666666652</v>
-      </c>
-      <c r="G8" s="8">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0.60416666666666652</v>
-      </c>
-      <c r="I8" s="3">
-        <v>30</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>120</v>
-      </c>
-      <c r="M8" s="3">
-        <v>8</v>
-      </c>
-      <c r="N8" s="3">
-        <v>8</v>
-      </c>
-      <c r="O8" s="46" t="str">
-        <f t="shared" si="0"/>
-        <v>巽今宮病院_7/13～7/30/2021-06-29</v>
-      </c>
-      <c r="P8" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-06-29T14:00:00.000+9</v>
-      </c>
-      <c r="Q8" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-06-29T14:30:00.000+9</v>
-      </c>
-      <c r="R8" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-06-29T14:00:00.000+9</v>
-      </c>
-      <c r="S8" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-06-29T14:30:00.000+9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="1" customFormat="1">
-      <c r="A9" s="1">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
-        <v>44383</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0.60416666666666652</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0.60416666666666652</v>
-      </c>
-      <c r="I9" s="3">
-        <v>30</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>120</v>
-      </c>
-      <c r="M9" s="3">
-        <v>8</v>
-      </c>
-      <c r="N9" s="3">
-        <v>8</v>
-      </c>
-      <c r="O9" s="46" t="str">
-        <f t="shared" si="0"/>
-        <v>巽今宮病院_7/13～7/30/2021-07-06</v>
-      </c>
-      <c r="P9" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-07-06T14:00:00.000+9</v>
-      </c>
-      <c r="Q9" s="9" t="str">
-        <f t="shared" si="2"/>
-        <v>2021-07-06T14:30:00.000+9</v>
-      </c>
-      <c r="R9" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v>2021-07-06T14:00:00.000+9</v>
-      </c>
-      <c r="S9" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>2021-07-06T14:30:00.000+9</v>
+        <f>TEXT(D2,"yyyy-mm-dd")&amp;"T"&amp;TEXT(H2,"hh:MM")&amp;":00.000+9"</f>
+        <v>2021-08-18T14:30:00.000+9</v>
       </c>
     </row>
   </sheetData>
